--- a/2DIsing_probability_distribution/input.xlsx
+++ b/2DIsing_probability_distribution/input.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My files\Project course\presentation\after mid sem_week 1\beta 1\final\2DIsing_probability_distribution\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prateek Verma\Documents\GitHub\2d_ising_simulation\2DIsing_probability_distribution\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,6 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913" iterate="1"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -392,7 +393,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -412,7 +413,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -462,7 +463,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.1</v>
       </c>
     </row>
   </sheetData>
